--- a/data/trans_orig/iP30KDB5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDB5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2786598F-FD20-4821-8797-E5FB7AEA21FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE476852-7888-4343-9A7C-C4EF9C23CB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE521880-63AC-4108-B2E2-E68D211B92A0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{312E961D-B060-495C-8F52-7AF68F1EF0F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si desayunan lácteos en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>2,66%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8990D374-A302-4559-8035-6B7694D98B45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3629C70-CE3B-41E2-85D3-DA1270FA3C91}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>39522</v>
+        <v>45257</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -901,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I4" s="7">
-        <v>45179</v>
+        <v>41366</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +919,7 @@
         <v>155</v>
       </c>
       <c r="N4" s="7">
-        <v>84700</v>
+        <v>86622</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>3622</v>
+        <v>1238</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>1114</v>
+        <v>3919</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +970,7 @@
         <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>4736</v>
+        <v>5157</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1021,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1041,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D7" s="7">
-        <v>158988</v>
+        <v>149485</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1056,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="I7" s="7">
-        <v>148782</v>
+        <v>165420</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1074,7 +1074,7 @@
         <v>490</v>
       </c>
       <c r="N7" s="7">
-        <v>307770</v>
+        <v>314906</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1092,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>15729</v>
+        <v>9814</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1107,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>9983</v>
+        <v>16539</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1125,7 +1125,7 @@
         <v>43</v>
       </c>
       <c r="N8" s="7">
-        <v>25712</v>
+        <v>26353</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1143,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1176,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1196,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D10" s="7">
-        <v>187684</v>
+        <v>157325</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1211,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="I10" s="7">
-        <v>161149</v>
+        <v>197515</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1229,7 +1229,7 @@
         <v>443</v>
       </c>
       <c r="N10" s="7">
-        <v>348833</v>
+        <v>354840</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1247,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>14794</v>
+        <v>15747</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1262,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="7">
-        <v>14964</v>
+        <v>14975</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1280,7 +1280,7 @@
         <v>33</v>
       </c>
       <c r="N11" s="7">
-        <v>29758</v>
+        <v>30723</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1298,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1331,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1351,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D13" s="7">
-        <v>264016</v>
+        <v>251086</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1366,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I13" s="7">
-        <v>235681</v>
+        <v>274892</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1384,7 +1384,7 @@
         <v>627</v>
       </c>
       <c r="N13" s="7">
-        <v>499698</v>
+        <v>525978</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1402,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>24978</v>
+        <v>23181</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1417,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I14" s="7">
-        <v>23757</v>
+        <v>30107</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1435,7 +1435,7 @@
         <v>55</v>
       </c>
       <c r="N14" s="7">
-        <v>48735</v>
+        <v>53288</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1456,7 +1456,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1471,7 +1471,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1486,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>869</v>
+        <v>846</v>
       </c>
       <c r="D16" s="7">
-        <v>650210</v>
+        <v>603153</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1521,10 +1521,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>846</v>
+        <v>869</v>
       </c>
       <c r="I16" s="7">
-        <v>590791</v>
+        <v>679193</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1539,7 +1539,7 @@
         <v>1715</v>
       </c>
       <c r="N16" s="7">
-        <v>1241001</v>
+        <v>1282346</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -1557,10 +1557,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="7">
-        <v>59123</v>
+        <v>49981</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1572,10 +1572,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I17" s="7">
-        <v>49818</v>
+        <v>65540</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -1590,7 +1590,7 @@
         <v>140</v>
       </c>
       <c r="N17" s="7">
-        <v>108941</v>
+        <v>115521</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -1608,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1641,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
